--- a/Results/Fixed_optRetrofit_randTornado/Fixed_optimalRetrofit_randomTornado.xlsx
+++ b/Results/Fixed_optRetrofit_randTornado/Fixed_optimalRetrofit_randomTornado.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAA\OSU\Tornado_proposal\Git\Two_Stage_Robust_Tornado_Problem\Results\Fixed_optRetrofit_randTornado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D51A1A-62E7-47AF-AAE6-862C26206427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01301019-7BA6-489E-9B11-08DB4353FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Summary!$B$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Summary!$B$37</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Summary!$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Summary!$E$22:$E$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Summary!$E$37:$E$46</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Summary!$E$7:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
   <si>
     <t>Try</t>
   </si>
@@ -88,6 +96,18 @@
   <si>
     <t>30M</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -280,11 +300,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,18 +327,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -313,9 +342,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,6 +361,94 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -361,6 +475,720 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{91CF1B96-5A3E-4F4F-B30E-4AE52097A163}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>0M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-D81C-48F0-BBB3-4BE85DFCEDE2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>15M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-D81C-48F0-BBB3-4BE85DFCEDE2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>30M</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="4000"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91916</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>394902</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178973</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CBF787-BE7A-A897-B965-83CCF2EEF395}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10095034" y="970482"/>
+              <a:ext cx="4591103" cy="2786903"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A496FB9-07AC-4BA3-A0AA-EECAF86A13FA}">
-  <dimension ref="B5:M23"/>
+  <dimension ref="B5:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,474 +1467,1795 @@
     <col min="5" max="5" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="18" t="s">
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
-      <c r="C9" s="6">
+      <c r="D7" s="38">
+        <v>5233</v>
+      </c>
+      <c r="E7" s="33">
+        <v>5233</v>
+      </c>
+      <c r="F7" s="38">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H7" s="32">
+        <v>2</v>
+      </c>
+      <c r="I7" s="32">
+        <v>8.9</v>
+      </c>
+      <c r="J7" s="32">
+        <v>10</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L7" s="32">
         <v>3</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
-      <c r="C12" s="9" t="s">
+      <c r="M7" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="46"/>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27">
+        <v>13199</v>
+      </c>
+      <c r="E8" s="34">
+        <v>13199</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>11.62</v>
+      </c>
+      <c r="H8" s="25">
+        <v>2</v>
+      </c>
+      <c r="I8" s="25">
+        <v>11.35</v>
+      </c>
+      <c r="J8" s="25">
+        <v>4</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="L8" s="25">
+        <v>1</v>
+      </c>
+      <c r="M8" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9" s="46"/>
+      <c r="C9" s="19">
+        <v>3</v>
+      </c>
+      <c r="D9" s="27">
+        <v>11776</v>
+      </c>
+      <c r="E9" s="34">
+        <v>11776</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>11.04</v>
+      </c>
+      <c r="H9" s="25">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25">
+        <v>10.88</v>
+      </c>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0.82</v>
+      </c>
+      <c r="L9" s="25">
+        <v>2</v>
+      </c>
+      <c r="M9" s="34">
+        <v>0.46</v>
+      </c>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10" s="46"/>
+      <c r="C10" s="19">
+        <v>4</v>
+      </c>
+      <c r="D10" s="27">
+        <v>13201</v>
+      </c>
+      <c r="E10" s="34">
+        <v>13201</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>10.71</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2</v>
+      </c>
+      <c r="I10" s="25">
+        <v>10.54</v>
+      </c>
+      <c r="J10" s="25">
+        <v>4</v>
+      </c>
+      <c r="K10" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="L10" s="25">
+        <v>2</v>
+      </c>
+      <c r="M10" s="34">
+        <v>1.06</v>
+      </c>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11" s="46"/>
+      <c r="C11" s="19">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27">
+        <v>12138</v>
+      </c>
+      <c r="E11" s="34">
+        <v>12138</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>12.43</v>
+      </c>
+      <c r="H11" s="25">
+        <v>2</v>
+      </c>
+      <c r="I11" s="25">
+        <v>12.21</v>
+      </c>
+      <c r="J11" s="25">
+        <v>8</v>
+      </c>
+      <c r="K11" s="25">
+        <v>1.36</v>
+      </c>
+      <c r="L11" s="25">
+        <v>4</v>
+      </c>
+      <c r="M11" s="34">
+        <v>0.66</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="46"/>
+      <c r="C12" s="19">
+        <v>6</v>
+      </c>
+      <c r="D12" s="27">
+        <v>12105</v>
+      </c>
+      <c r="E12" s="34">
+        <v>12105</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>11.62</v>
+      </c>
+      <c r="H12" s="25">
+        <v>2</v>
+      </c>
+      <c r="I12" s="25">
+        <v>11.44</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="25">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13" s="46"/>
+      <c r="C13" s="19">
+        <v>7</v>
+      </c>
+      <c r="D13" s="27">
+        <v>6372</v>
+      </c>
+      <c r="E13" s="34">
+        <v>6372</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>13.9</v>
+      </c>
+      <c r="H13" s="25">
+        <v>2</v>
+      </c>
+      <c r="I13" s="25">
+        <v>13.72</v>
+      </c>
+      <c r="J13" s="25">
+        <v>16</v>
+      </c>
+      <c r="K13" s="25">
+        <v>2.72</v>
+      </c>
+      <c r="L13" s="25">
+        <v>12</v>
+      </c>
+      <c r="M13" s="34">
+        <v>1.83</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14" s="46"/>
+      <c r="C14" s="19">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27">
+        <v>11200</v>
+      </c>
+      <c r="E14" s="34">
+        <v>11200</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>14.59</v>
+      </c>
+      <c r="H14" s="25">
+        <v>2</v>
+      </c>
+      <c r="I14" s="25">
+        <v>14.4</v>
+      </c>
+      <c r="J14" s="25">
+        <v>20</v>
+      </c>
+      <c r="K14" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="L14" s="25">
+        <v>9</v>
+      </c>
+      <c r="M14" s="34">
+        <v>1.76</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15" s="46"/>
+      <c r="C15" s="19">
+        <v>9</v>
+      </c>
+      <c r="D15" s="27">
+        <v>11184</v>
+      </c>
+      <c r="E15" s="34">
+        <v>11184</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>11.42</v>
+      </c>
+      <c r="H15" s="25">
+        <v>2</v>
+      </c>
+      <c r="I15" s="25">
+        <v>11.21</v>
+      </c>
+      <c r="J15" s="25">
+        <v>4</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1</v>
+      </c>
+      <c r="M15" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="46"/>
+      <c r="C16" s="20">
+        <v>10</v>
+      </c>
+      <c r="D16" s="37">
+        <v>6832</v>
+      </c>
+      <c r="E16" s="36">
+        <v>6832</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
+        <v>10.57</v>
+      </c>
+      <c r="H16" s="35">
+        <v>2</v>
+      </c>
+      <c r="I16" s="35">
+        <v>10.34</v>
+      </c>
+      <c r="J16" s="35">
+        <v>4</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0.74</v>
+      </c>
+      <c r="L16" s="35">
+        <v>1</v>
+      </c>
+      <c r="M16" s="36">
+        <v>0.37</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B17" s="46"/>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1">
+        <f>MIN(D7:D16)</f>
+        <v>5233</v>
+      </c>
+      <c r="E17" s="2">
+        <f>MIN(E7:E16)</f>
+        <v>5233</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="46"/>
+      <c r="C18" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="37">
+        <f>MAX(D7:D16)</f>
+        <v>13201</v>
+      </c>
+      <c r="E18" s="36">
+        <f>MAX(E7:E16)</f>
+        <v>13201</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B19" s="46"/>
+      <c r="C19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8" t="e">
-        <f t="shared" ref="D12:M12" si="0">AVERAGE(D7:D11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="9" t="e">
+      <c r="D19" s="21">
+        <f t="shared" ref="D19:M19" si="0">AVERAGE(D7:D16)</f>
+        <v>10324</v>
+      </c>
+      <c r="E19" s="22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="4" t="e">
+        <v>10324</v>
+      </c>
+      <c r="F19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="4" t="e">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="4" t="e">
+        <v>11.693999999999999</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="4" t="e">
+        <v>2</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="4" t="e">
+        <v>11.499000000000001</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="4" t="e">
+        <v>7.8</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="4" t="e">
+        <v>1.278</v>
+      </c>
+      <c r="L19" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="9" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="M19" s="7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
-      <c r="C13" s="16" t="s">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="46"/>
+      <c r="C20" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="14">
+        <f>_xlfn.STDEV.P(D7:D16)</f>
+        <v>2834.6294290435922</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" ref="E20:M20" si="1">_xlfn.STDEV.P(E7:E16)</f>
+        <v>2834.6294290435922</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>_xlfn.STDEV.P(G7:G16)</f>
+        <v>1.5357096079663008</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="1"/>
+        <v>1.528538190559847</v>
+      </c>
+      <c r="J20" s="11">
+        <f>_xlfn.STDEV.P(J7:J16)</f>
+        <v>5.5461698495448193</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.98030403447093895</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>3.7215588131856792</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65871465749594493</v>
+      </c>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="47"/>
+      <c r="C21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D21" s="39">
         <v>16318</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E21" s="30">
         <v>16318</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
         <v>126.59</v>
       </c>
-      <c r="H13" s="14">
-        <v>2</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
         <v>126.45</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J21" s="4">
         <v>36</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K21" s="4">
         <v>3.49</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L21" s="4">
         <v>14</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M21" s="30">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B22" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="6">
+      <c r="D22" s="38">
+        <v>5030</v>
+      </c>
+      <c r="E22" s="33">
+        <v>5031</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0</v>
+      </c>
+      <c r="G22" s="32">
+        <v>15.85</v>
+      </c>
+      <c r="H22" s="32">
+        <v>2</v>
+      </c>
+      <c r="I22" s="32">
+        <v>15.61</v>
+      </c>
+      <c r="J22" s="32">
+        <v>7</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1.05</v>
+      </c>
+      <c r="L22" s="32">
         <v>3</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="19"/>
-      <c r="C17" s="9" t="s">
+      <c r="M22" s="33">
+        <v>0.26</v>
+      </c>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B23" s="46"/>
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+      <c r="D23" s="27">
+        <v>12654</v>
+      </c>
+      <c r="E23" s="34">
+        <v>12720</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="25">
+        <v>20.72</v>
+      </c>
+      <c r="H23" s="25">
+        <v>2</v>
+      </c>
+      <c r="I23" s="25">
+        <v>20.38</v>
+      </c>
+      <c r="J23" s="25">
+        <v>4</v>
+      </c>
+      <c r="K23" s="25">
+        <v>1.04</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
+      <c r="M23" s="34">
+        <v>0.09</v>
+      </c>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B24" s="46"/>
+      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="D24" s="27">
+        <v>11055</v>
+      </c>
+      <c r="E24" s="34">
+        <v>11099</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>19.37</v>
+      </c>
+      <c r="H24" s="25">
+        <v>2</v>
+      </c>
+      <c r="I24" s="25">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J24" s="25">
+        <v>4</v>
+      </c>
+      <c r="K24" s="25">
+        <v>1.27</v>
+      </c>
+      <c r="L24" s="25">
+        <v>2</v>
+      </c>
+      <c r="M24" s="34">
+        <v>0.74</v>
+      </c>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B25" s="46"/>
+      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="D25" s="27">
+        <v>12261</v>
+      </c>
+      <c r="E25" s="34">
+        <v>12348</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G25" s="25">
+        <v>13.09</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="25">
+        <v>12.86</v>
+      </c>
+      <c r="J25" s="25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="25">
+        <v>1.59</v>
+      </c>
+      <c r="L25" s="25">
+        <v>2</v>
+      </c>
+      <c r="M25" s="34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="46"/>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="27">
+        <v>10933</v>
+      </c>
+      <c r="E26" s="34">
+        <v>10933</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>17.07</v>
+      </c>
+      <c r="H26" s="25">
+        <v>2</v>
+      </c>
+      <c r="I26" s="25">
+        <v>16.8</v>
+      </c>
+      <c r="J26" s="25">
+        <v>19</v>
+      </c>
+      <c r="K26" s="25">
+        <v>4.01</v>
+      </c>
+      <c r="L26" s="25">
+        <v>10</v>
+      </c>
+      <c r="M26" s="34">
+        <v>2</v>
+      </c>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B27" s="46"/>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="D27" s="27">
+        <v>10856</v>
+      </c>
+      <c r="E27" s="34">
+        <v>10943</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="25">
+        <v>19.02</v>
+      </c>
+      <c r="H27" s="25">
+        <v>2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="J27" s="25">
+        <v>4</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0.61</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="34">
+        <v>0</v>
+      </c>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="46"/>
+      <c r="C28" s="5">
+        <v>7</v>
+      </c>
+      <c r="D28" s="27">
+        <v>6033</v>
+      </c>
+      <c r="E28" s="34">
+        <v>6033</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>8.01</v>
+      </c>
+      <c r="H28" s="25">
+        <v>2</v>
+      </c>
+      <c r="I28" s="25">
+        <v>7.89</v>
+      </c>
+      <c r="J28" s="25">
+        <v>15</v>
+      </c>
+      <c r="K28" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="L28" s="25">
+        <v>8</v>
+      </c>
+      <c r="M28" s="34">
+        <v>0.69</v>
+      </c>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B29" s="46"/>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+      <c r="D29" s="27">
+        <v>10435</v>
+      </c>
+      <c r="E29" s="34">
+        <v>10534</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="25">
+        <v>13.82</v>
+      </c>
+      <c r="H29" s="25">
+        <v>2</v>
+      </c>
+      <c r="I29" s="25">
+        <v>13.4</v>
+      </c>
+      <c r="J29" s="25">
+        <v>10</v>
+      </c>
+      <c r="K29" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="L29" s="25">
+        <v>4</v>
+      </c>
+      <c r="M29" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="46"/>
+      <c r="C30" s="5">
+        <v>9</v>
+      </c>
+      <c r="D30" s="27">
+        <v>10639</v>
+      </c>
+      <c r="E30" s="34">
+        <v>10705</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="25">
+        <v>14</v>
+      </c>
+      <c r="H30" s="25">
+        <v>2</v>
+      </c>
+      <c r="I30" s="25">
+        <v>13.67</v>
+      </c>
+      <c r="J30" s="25">
+        <v>4</v>
+      </c>
+      <c r="K30" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="L30" s="25">
+        <v>1</v>
+      </c>
+      <c r="M30" s="34">
+        <v>0.08</v>
+      </c>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="46"/>
+      <c r="C31" s="26">
+        <v>10</v>
+      </c>
+      <c r="D31" s="37">
+        <v>5997</v>
+      </c>
+      <c r="E31" s="36">
+        <v>5997</v>
+      </c>
+      <c r="F31" s="37">
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H31" s="35">
+        <v>2</v>
+      </c>
+      <c r="I31" s="35">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="J31" s="35">
+        <v>6</v>
+      </c>
+      <c r="K31" s="35">
+        <v>1.07</v>
+      </c>
+      <c r="L31" s="35">
+        <v>1</v>
+      </c>
+      <c r="M31" s="36">
+        <v>0.33</v>
+      </c>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B32" s="46"/>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1">
+        <f>MIN(D22:D31)</f>
+        <v>5030</v>
+      </c>
+      <c r="E32" s="2">
+        <f>MIN(E22:E31)</f>
+        <v>5031</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="46"/>
+      <c r="C33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="37">
+        <f>MAX(D22:D31)</f>
+        <v>12654</v>
+      </c>
+      <c r="E33" s="36">
+        <f>MAX(E22:E31)</f>
+        <v>12720</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B34" s="46"/>
+      <c r="C34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8" t="e">
-        <f t="shared" ref="D17:M17" si="1">AVERAGE(D14:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
-      <c r="C18" s="16" t="s">
+      <c r="D34" s="21">
+        <f t="shared" ref="D34:M34" si="2">AVERAGE(D22:D31)</f>
+        <v>9589.2999999999993</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="2"/>
+        <v>9634.2999999999993</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="2"/>
+        <v>15.804999999999998</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>15.528</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="2"/>
+        <v>7.7</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4600000000000002</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="M34" s="7">
+        <f t="shared" si="2"/>
+        <v>0.60200000000000009</v>
+      </c>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="46"/>
+      <c r="C35" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="14">
+        <f>_xlfn.STDEV.P(D22:D31)</f>
+        <v>2650.3751828750587</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" ref="E35:F35" si="3">_xlfn.STDEV.P(E22:E31)</f>
+        <v>2679.1027994461128</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="11">
+        <f>_xlfn.STDEV.P(G22:G31)</f>
+        <v>3.5470191710787295</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" ref="H35:I35" si="4">_xlfn.STDEV.P(H22:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="4"/>
+        <v>3.5135873405964944</v>
+      </c>
+      <c r="J35" s="11">
+        <f>_xlfn.STDEV.P(J22:J31)</f>
+        <v>5.0803543183522146</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" ref="K35:M35" si="5">_xlfn.STDEV.P(K22:K31)</f>
+        <v>0.92107545836375393</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="5"/>
+        <v>3.1240998703626617</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="5"/>
+        <v>0.57944456162777125</v>
+      </c>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="47"/>
+      <c r="C36" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D36" s="29">
         <v>13312</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E36" s="41">
         <v>13408</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F36" s="4">
         <v>0.01</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G36" s="4">
         <v>306.77</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H36" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I36" s="4">
         <v>306.41000000000003</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J36" s="4">
         <v>69</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K36" s="4">
         <v>11.23</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L36" s="4">
         <v>29</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M36" s="30">
         <v>5.74</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="18" t="s">
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B37" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C37" s="15">
         <v>1</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B20" s="19"/>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="6">
+      <c r="D37" s="38">
+        <v>4900</v>
+      </c>
+      <c r="E37" s="33">
+        <v>4900</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0</v>
+      </c>
+      <c r="G37" s="32">
+        <v>7.55</v>
+      </c>
+      <c r="H37" s="32">
+        <v>2</v>
+      </c>
+      <c r="I37" s="32">
+        <v>7.41</v>
+      </c>
+      <c r="J37" s="32">
+        <v>24</v>
+      </c>
+      <c r="K37" s="32">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L37" s="32">
+        <v>17</v>
+      </c>
+      <c r="M37" s="33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B38" s="46"/>
+      <c r="C38" s="16">
+        <v>2</v>
+      </c>
+      <c r="D38" s="27">
+        <v>12480</v>
+      </c>
+      <c r="E38" s="34">
+        <v>12480</v>
+      </c>
+      <c r="F38" s="27">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
+        <v>7.48</v>
+      </c>
+      <c r="H38" s="25">
+        <v>2</v>
+      </c>
+      <c r="I38" s="25">
+        <v>7.35</v>
+      </c>
+      <c r="J38" s="25">
+        <v>6</v>
+      </c>
+      <c r="K38" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="L38" s="25">
+        <v>1</v>
+      </c>
+      <c r="M38" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B39" s="46"/>
+      <c r="C39" s="16">
         <v>3</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="9" t="s">
+      <c r="D39" s="27">
+        <v>10880</v>
+      </c>
+      <c r="E39" s="34">
+        <v>10880</v>
+      </c>
+      <c r="F39" s="27">
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <v>9.39</v>
+      </c>
+      <c r="H39" s="25">
+        <v>2</v>
+      </c>
+      <c r="I39" s="25">
+        <v>9.25</v>
+      </c>
+      <c r="J39" s="25">
+        <v>6</v>
+      </c>
+      <c r="K39" s="25">
+        <v>1.19</v>
+      </c>
+      <c r="L39" s="25">
+        <v>2</v>
+      </c>
+      <c r="M39" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B40" s="46"/>
+      <c r="C40" s="16">
+        <v>4</v>
+      </c>
+      <c r="D40" s="27">
+        <v>12002</v>
+      </c>
+      <c r="E40" s="34">
+        <v>12002</v>
+      </c>
+      <c r="F40" s="27">
+        <v>0</v>
+      </c>
+      <c r="G40" s="25">
+        <v>13.15</v>
+      </c>
+      <c r="H40" s="25">
+        <v>2</v>
+      </c>
+      <c r="I40" s="25">
+        <v>12.93</v>
+      </c>
+      <c r="J40" s="25">
+        <v>6</v>
+      </c>
+      <c r="K40" s="25">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="L40" s="25">
+        <v>2</v>
+      </c>
+      <c r="M40" s="34">
+        <v>1.45</v>
+      </c>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B41" s="46"/>
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="27">
+        <v>10681</v>
+      </c>
+      <c r="E41" s="34">
+        <v>10681</v>
+      </c>
+      <c r="F41" s="27">
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <v>15.91</v>
+      </c>
+      <c r="H41" s="25">
+        <v>2</v>
+      </c>
+      <c r="I41" s="25">
+        <v>15.76</v>
+      </c>
+      <c r="J41" s="25">
+        <v>22</v>
+      </c>
+      <c r="K41" s="25">
+        <v>6.32</v>
+      </c>
+      <c r="L41" s="25">
+        <v>13</v>
+      </c>
+      <c r="M41" s="34">
+        <v>3.98</v>
+      </c>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B42" s="46"/>
+      <c r="C42" s="16">
+        <v>6</v>
+      </c>
+      <c r="D42" s="27">
+        <v>10597</v>
+      </c>
+      <c r="E42" s="34">
+        <v>10597</v>
+      </c>
+      <c r="F42" s="27">
+        <v>0</v>
+      </c>
+      <c r="G42" s="25">
+        <v>10.06</v>
+      </c>
+      <c r="H42" s="25">
+        <v>2</v>
+      </c>
+      <c r="I42" s="25">
+        <v>9.91</v>
+      </c>
+      <c r="J42" s="25">
+        <v>8</v>
+      </c>
+      <c r="K42" s="25">
+        <v>0.72</v>
+      </c>
+      <c r="L42" s="25">
+        <v>1</v>
+      </c>
+      <c r="M42" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B43" s="46"/>
+      <c r="C43" s="16">
+        <v>7</v>
+      </c>
+      <c r="D43" s="27">
+        <v>6033</v>
+      </c>
+      <c r="E43" s="34">
+        <v>6033</v>
+      </c>
+      <c r="F43" s="27">
+        <v>0</v>
+      </c>
+      <c r="G43" s="25">
+        <v>12.2</v>
+      </c>
+      <c r="H43" s="25">
+        <v>2</v>
+      </c>
+      <c r="I43" s="25">
+        <v>12.05</v>
+      </c>
+      <c r="J43" s="25">
+        <v>15</v>
+      </c>
+      <c r="K43" s="25">
+        <v>1.86</v>
+      </c>
+      <c r="L43" s="25">
+        <v>8</v>
+      </c>
+      <c r="M43" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B44" s="46"/>
+      <c r="C44" s="16">
+        <v>8</v>
+      </c>
+      <c r="D44" s="27">
+        <v>10305</v>
+      </c>
+      <c r="E44" s="34">
+        <v>10315</v>
+      </c>
+      <c r="F44" s="27">
+        <v>0</v>
+      </c>
+      <c r="G44" s="25">
+        <v>13.99</v>
+      </c>
+      <c r="H44" s="25">
+        <v>2</v>
+      </c>
+      <c r="I44" s="25">
+        <v>13.79</v>
+      </c>
+      <c r="J44" s="25">
+        <v>29</v>
+      </c>
+      <c r="K44" s="25">
+        <v>2.88</v>
+      </c>
+      <c r="L44" s="25">
+        <v>15</v>
+      </c>
+      <c r="M44" s="34">
+        <v>0.98</v>
+      </c>
+      <c r="N44" s="23"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B45" s="46"/>
+      <c r="C45" s="16">
+        <v>9</v>
+      </c>
+      <c r="D45" s="27">
+        <v>10466</v>
+      </c>
+      <c r="E45" s="34">
+        <v>10466</v>
+      </c>
+      <c r="F45" s="27">
+        <v>0</v>
+      </c>
+      <c r="G45" s="25">
+        <v>10.79</v>
+      </c>
+      <c r="H45" s="25">
+        <v>2</v>
+      </c>
+      <c r="I45" s="25">
+        <v>10.63</v>
+      </c>
+      <c r="J45" s="25">
+        <v>6</v>
+      </c>
+      <c r="K45" s="25">
+        <v>0.67</v>
+      </c>
+      <c r="L45" s="25">
+        <v>1</v>
+      </c>
+      <c r="M45" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="46"/>
+      <c r="C46" s="17">
+        <v>10</v>
+      </c>
+      <c r="D46" s="37">
+        <v>5807</v>
+      </c>
+      <c r="E46" s="36">
+        <v>5807</v>
+      </c>
+      <c r="F46" s="37">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>10.88</v>
+      </c>
+      <c r="H46" s="35">
+        <v>2</v>
+      </c>
+      <c r="I46" s="35">
+        <v>10.72</v>
+      </c>
+      <c r="J46" s="35">
+        <v>6</v>
+      </c>
+      <c r="K46" s="35">
+        <v>0.62</v>
+      </c>
+      <c r="L46" s="35">
+        <v>1</v>
+      </c>
+      <c r="M46" s="36">
+        <v>0.17</v>
+      </c>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B47" s="46"/>
+      <c r="C47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="1">
+        <f>MIN(D37:D46)</f>
+        <v>4900</v>
+      </c>
+      <c r="E47" s="2">
+        <f>MIN(E37:E46)</f>
+        <v>4900</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="46"/>
+      <c r="C48" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="37">
+        <f>MAX(D37:D46)</f>
+        <v>12480</v>
+      </c>
+      <c r="E48" s="36">
+        <f>MAX(E37:E46)</f>
+        <v>12480</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B49" s="46"/>
+      <c r="C49" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="8" t="e">
-        <f>AVERAGE(D19:D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="9" t="e">
-        <f t="shared" ref="E22:M22" si="2">AVERAGE(E19:E21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="20"/>
-      <c r="C23" s="16" t="s">
+      <c r="D49" s="21">
+        <f>AVERAGE(D37:D46)</f>
+        <v>9415.1</v>
+      </c>
+      <c r="E49" s="22">
+        <f>AVERAGE(E37:E46)</f>
+        <v>9416.1</v>
+      </c>
+      <c r="F49" s="6">
+        <f>AVERAGE(F37:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f>AVERAGE(G37:G46)</f>
+        <v>11.14</v>
+      </c>
+      <c r="H49" s="3">
+        <f>AVERAGE(H37:H46)</f>
+        <v>2</v>
+      </c>
+      <c r="I49" s="3">
+        <f>AVERAGE(I37:I46)</f>
+        <v>10.979999999999999</v>
+      </c>
+      <c r="J49" s="3">
+        <f>AVERAGE(J37:J46)</f>
+        <v>12.8</v>
+      </c>
+      <c r="K49" s="3">
+        <f>AVERAGE(K37:K46)</f>
+        <v>1.8380000000000003</v>
+      </c>
+      <c r="L49" s="3">
+        <f>AVERAGE(L37:L46)</f>
+        <v>6.1</v>
+      </c>
+      <c r="M49" s="7">
+        <f>AVERAGE(M37:M46)</f>
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="N49" s="24"/>
+    </row>
+    <row r="50" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="46"/>
+      <c r="C50" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="14">
+        <f>_xlfn.STDEV.P(D37:D46)</f>
+        <v>2607.1135936126757</v>
+      </c>
+      <c r="E50" s="12">
+        <f>_xlfn.STDEV.P(E37:E46)</f>
+        <v>2607.4566324293869</v>
+      </c>
+      <c r="F50" s="14">
+        <f>_xlfn.STDEV.P(F37:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <f>_xlfn.STDEV.P(G37:G46)</f>
+        <v>2.5834434385137945</v>
+      </c>
+      <c r="H50" s="11">
+        <f>_xlfn.STDEV.P(H37:H46)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="11">
+        <f>_xlfn.STDEV.P(I37:I46)</f>
+        <v>2.5679096557316936</v>
+      </c>
+      <c r="J50" s="11">
+        <f>_xlfn.STDEV.P(J37:J46)</f>
+        <v>8.5533619121372393</v>
+      </c>
+      <c r="K50" s="11">
+        <f>_xlfn.STDEV.P(K37:K46)</f>
+        <v>1.6676078675755879</v>
+      </c>
+      <c r="L50" s="11">
+        <f>_xlfn.STDEV.P(L37:L46)</f>
+        <v>6.2201286160335947</v>
+      </c>
+      <c r="M50" s="12">
+        <f>_xlfn.STDEV.P(M37:M46)</f>
+        <v>1.121830646755561</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="47"/>
+      <c r="C51" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D51" s="28">
         <v>13013</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E51" s="13">
         <v>13091</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F51" s="14">
         <v>0.01</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G51" s="11">
         <v>300.22000000000003</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H51" s="11">
         <v>3</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I51" s="11">
         <v>299.87</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J51" s="11">
         <v>63</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K51" s="11">
         <v>10.6</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L51" s="11">
         <v>33</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M51" s="12">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B22:B36"/>
+    <mergeCell ref="B37:B51"/>
+    <mergeCell ref="B7:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>